--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/42/word_level_predictions_42.xlsx
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2270,158 +2270,158 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Incompatible</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="D37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="G37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -2894,468 +2894,468 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,81 +4529,81 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -12717,57 +12717,57 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18205,187 +18205,187 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B343" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E343" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B344" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C344" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B345" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C345" s="2" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E345" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F345" s="2" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>30</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D343" t="n">
-        <v>4</v>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>30</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D344" t="n">
-        <v>5</v>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>30</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="D345" t="n">
-        <v>6</v>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23642,210 +23642,210 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="n">
+      <c r="A447" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B447" t="inlineStr">
+      <c r="B447" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr">
+      <c r="C447" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" t="n">
+      <c r="D447" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E447" t="inlineStr">
+      <c r="E447" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G447" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" t="b">
-        <v>1</v>
-      </c>
-      <c r="J447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K447" t="b">
-        <v>1</v>
-      </c>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F447" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J447" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K447" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L447" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="n">
+      <c r="A448" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B448" t="inlineStr">
+      <c r="B448" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr">
+      <c r="C448" s="2" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G448" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" t="b">
-        <v>1</v>
-      </c>
-      <c r="J448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K448" t="b">
-        <v>1</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D448" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G448" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J448" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K448" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L448" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="n">
+      <c r="A449" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B449" t="inlineStr">
+      <c r="B449" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr">
+      <c r="C449" s="2" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" t="n">
+      <c r="D449" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G449" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" t="b">
-        <v>1</v>
-      </c>
-      <c r="J449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K449" t="b">
-        <v>1</v>
-      </c>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E449" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J449" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K449" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L449" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="n">
+      <c r="A450" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B450" t="inlineStr">
+      <c r="B450" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr">
+      <c r="C450" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" t="n">
+      <c r="D450" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E450" t="inlineStr">
+      <c r="E450" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G450" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K450" t="b">
-        <v>1</v>
-      </c>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F450" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K450" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L450" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24162,104 +24162,104 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E457" t="inlineStr">
+      <c r="E457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" t="inlineStr">
+      <c r="F457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" t="inlineStr">
+      <c r="D458" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" t="inlineStr">
+      <c r="F458" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -24289,7 +24289,7 @@
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G459" s="2" t="b">
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
@@ -25878,364 +25878,364 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" s="2" t="n">
+      <c r="D490" t="n">
         <v>7</v>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" s="2" t="n">
+      <c r="D491" t="n">
         <v>8</v>
       </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" s="2" t="n">
+      <c r="D492" t="n">
         <v>9</v>
       </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" s="2" t="n">
+      <c r="D493" t="n">
         <v>10</v>
       </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" s="2" t="n">
+      <c r="D494" t="n">
         <v>11</v>
       </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" s="2" t="n">
+      <c r="D495" t="n">
         <v>12</v>
       </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
+      <c r="F496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/42/word_level_predictions_42.xlsx
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2270,158 +2270,158 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
         <v>3</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Incompatible</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" t="n">
         <v>2</v>
       </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,468 +2894,468 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Recorder</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Recorder</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,57 +4553,57 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12693,81 +12693,81 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>21</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>gear</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>7</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>gear</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18205,7 +18205,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G342" t="b">
@@ -18229,163 +18229,163 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23642,210 +23642,210 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="2" t="n">
+      <c r="A447" t="n">
         <v>41</v>
       </c>
-      <c r="B447" s="2" t="inlineStr">
+      <c r="B447" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" s="2" t="inlineStr">
+      <c r="C447" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" s="2" t="n">
+      <c r="D447" t="n">
         <v>0</v>
       </c>
-      <c r="E447" s="2" t="inlineStr">
+      <c r="E447" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J447" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K447" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L447" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G447" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" t="b">
+        <v>1</v>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K447" t="b">
+        <v>1</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="2" t="n">
+      <c r="A448" t="n">
         <v>41</v>
       </c>
-      <c r="B448" s="2" t="inlineStr">
+      <c r="B448" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" s="2" t="inlineStr">
+      <c r="C448" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G448" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J448" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K448" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L448" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="D448" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G448" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" t="b">
+        <v>1</v>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K448" t="b">
+        <v>1</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="2" t="n">
+      <c r="A449" t="n">
         <v>41</v>
       </c>
-      <c r="B449" s="2" t="inlineStr">
+      <c r="B449" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" s="2" t="inlineStr">
+      <c r="C449" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" s="2" t="n">
+      <c r="D449" t="n">
         <v>2</v>
       </c>
-      <c r="E449" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G449" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J449" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K449" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L449" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G449" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" t="b">
+        <v>1</v>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K449" t="b">
+        <v>1</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="2" t="n">
+      <c r="A450" t="n">
         <v>41</v>
       </c>
-      <c r="B450" s="2" t="inlineStr">
+      <c r="B450" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" s="2" t="inlineStr">
+      <c r="C450" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" s="2" t="n">
+      <c r="D450" t="n">
         <v>3</v>
       </c>
-      <c r="E450" s="2" t="inlineStr">
+      <c r="E450" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G450" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K450" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L450" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G450" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K450" t="b">
+        <v>1</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24162,104 +24162,104 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>42</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>0</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
+      <c r="E457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" s="2" t="inlineStr">
+      <c r="F457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>42</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" s="2" t="inlineStr">
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" s="2" t="inlineStr">
+      <c r="F458" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -24289,7 +24289,7 @@
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G459" s="2" t="b">
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
@@ -25878,364 +25878,364 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F490" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
+      <c r="F496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
